--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1366349.50968498</v>
+        <v>1382994.628988669</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111181</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7176060.050691722</v>
+        <v>7176060.050691723</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.12283097261258</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>42.45964176806547</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.381457341452935</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,64 +907,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
+        <v>186.9919489137622</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>141.7199449839862</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>236.634544917884</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1159031720507</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.86683734433478</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>89.29749682216328</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>405.7415719969023</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.0632770397856</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>282.3876436113781</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>70.12830304199542</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>3.062277887576959</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>21.38816470214931</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.2133797814145</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1810,10 +1812,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.83153396320687</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>9.332058976593611</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>69.0167005930995</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>68.10852146420206</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>94.93646306816267</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>164.6210707060887</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.06064116356384</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>141.6396260835077</v>
+        <v>83.13152374633752</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>12.35168551462418</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>85.67417889435364</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.8404510156489</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>94.12001078391287</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -2652,7 +2654,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.9304267702663515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.78974769572852</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.666355695961739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.4009389003661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>80.97782987246852</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2921,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>134.6561869276413</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>342.3989529034556</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>137.1840518004453</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>69.29095382844217</v>
+        <v>177.1004234984389</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3168,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>142.4630035987964</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>32.10764432579369</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>46.57473665873909</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>140.042008741355</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="C37" t="n">
-        <v>99.78974769572874</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>53.28249029595646</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>125.7373763505586</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>191.96389311163</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>151.3260811254159</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>30.44996741998411</v>
+        <v>30.44996741998434</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>273.798970718996</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1287817022241</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>98.4641716569384</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>86.07904789895046</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3882,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.44996741998439</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.47765048557247</v>
       </c>
       <c r="S44" t="n">
-        <v>35.41912010935305</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>26.81125631724178</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>46.57473665873888</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>34.73845373156126</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4446,13 +4448,13 @@
         <v>360.2295980564601</v>
       </c>
       <c r="W3" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X3" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4513,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.4863644856259</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>253.4863644856259</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>461.2466632505798</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>253.4863644856259</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="9">
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X9" t="n">
-        <v>279.432186667424</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.67188790247008</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4996,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1378.603698709343</v>
+        <v>1337.726243935712</v>
       </c>
       <c r="C11" t="n">
-        <v>1378.603698709343</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.603698709343</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F11" t="n">
         <v>968.7637269953004</v>
@@ -5039,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>1378.603698709343</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>1378.603698709343</v>
+        <v>1337.726243935712</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.1093162839453</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>737.1093162839453</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
         <v>666.272646544556</v>
@@ -5121,16 +5123,16 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026703</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V12" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W12" t="n">
-        <v>944.9608164894781</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X12" t="n">
-        <v>737.1093162839453</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y12" t="n">
-        <v>737.1093162839453</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975219</v>
@@ -5276,16 +5278,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>150.9897000805384</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>797.1878481669783</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>622.7348188858513</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>473.8004092246</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>314.5629542191445</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>168.0283962460295</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>1173.163483952</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="V15" t="n">
-        <v>1173.163483952</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="W15" t="n">
-        <v>1173.163483952</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X15" t="n">
-        <v>1173.163483952</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y15" t="n">
-        <v>965.4031851870463</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8860696601711</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.8860696601711</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F17" t="n">
-        <v>827.338063675322</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612793</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H17" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L18" t="n">
         <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497702</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026703</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O18" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>1573.487221477489</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>1365.635721271956</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.42047117713287</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.42047117713287</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.42047117713287</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.42047117713287</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>41.88564795833159</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>41.88564795833159</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>846.2271159476757</v>
+        <v>880.0583007416835</v>
       </c>
       <c r="C20" t="n">
-        <v>776.5132769647469</v>
+        <v>511.0957838012718</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>511.0957838012718</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5789,13 +5791,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1232.826956011797</v>
+        <v>880.0583007416835</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.1403226946671</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="C21" t="n">
-        <v>291.6872934135401</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="D21" t="n">
-        <v>142.7528837522889</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E21" t="n">
-        <v>142.7528837522889</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F21" t="n">
         <v>142.7528837522889</v>
@@ -5823,31 +5825,31 @@
         <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5862,19 +5864,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1077.268066711432</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>842.115958479689</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W21" t="n">
-        <v>842.115958479689</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X21" t="n">
-        <v>842.115958479689</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="Y21" t="n">
-        <v>634.3556597147351</v>
+        <v>289.2874417254039</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="C23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="D23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="E23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="F23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6020,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644038</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739243</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6689871128444</v>
+        <v>642.8949913886695</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.5296551370327</v>
+        <v>642.8949913886695</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.95955255904698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C24" t="n">
-        <v>39.95955255904698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>39.95955255904698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>39.95955255904698</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
@@ -6099,19 +6101,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577354</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W24" t="n">
-        <v>455.5713515295337</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X24" t="n">
-        <v>247.7198513240009</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.95955255904698</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>1610.489837972837</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
         <v>1302.533129726572</v>
@@ -6184,13 +6186,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950648</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>477.2645990072639</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>118.9989004005134</v>
       </c>
       <c r="E26" t="n">
         <v>32.45932575975218</v>
@@ -6254,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1047.453713098263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>673.987954837183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.4218427001639</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>910.3247089140674</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="C27" t="n">
-        <v>735.8716796329404</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="D27" t="n">
-        <v>586.9372699716891</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6998149662337</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931186</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1578.043302647803</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6332,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>1287.331371160139</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>1079.479870954606</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y27" t="n">
-        <v>1078.540045934135</v>
+        <v>455.5713515295337</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.168563042429</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>418.2475783579964</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C29" t="n">
-        <v>418.2475783579964</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="D29" t="n">
-        <v>418.2475783579964</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>449.0329900959785</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>449.0329900959785</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>39.19301838193576</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>39.19301838193576</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6467,7 +6469,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941454</v>
@@ -6485,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V29" t="n">
-        <v>1369.129404919863</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W29" t="n">
-        <v>1016.360749649749</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X29" t="n">
-        <v>642.8949913886693</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y29" t="n">
-        <v>418.2475783579964</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.5894836660434</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C30" t="n">
-        <v>548.1364543849164</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D30" t="n">
-        <v>399.2020447236652</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6567,25 +6569,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V30" t="n">
-        <v>1306.416619656598</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.416619656598</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.565119451065</v>
+        <v>319.5550010975728</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.8048206861115</v>
+        <v>111.7947023326189</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>1461.474148589836</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>1312.482271763492</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
         <v>1294.179012144411</v>
@@ -6652,19 +6654,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433051</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3168539450608</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F32" t="n">
         <v>32.45932575975218</v>
@@ -6698,7 +6700,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011318</v>
@@ -6707,7 +6709,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214177</v>
+        <v>1484.39653869423</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214177</v>
+        <v>1153.333651350659</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214177</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214177</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214177</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>170.8716990005819</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C33" t="n">
-        <v>170.8716990005819</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6777,16 +6779,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609043</v>
@@ -6807,22 +6809,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1304.075630393535</v>
+        <v>1195.177176181417</v>
       </c>
       <c r="U33" t="n">
-        <v>1075.872962931013</v>
+        <v>966.9745087188951</v>
       </c>
       <c r="V33" t="n">
-        <v>840.7208546992704</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="W33" t="n">
-        <v>586.4834979710687</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="X33" t="n">
-        <v>378.6319977655359</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.8716990005819</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1441.31782315737</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.1638382513748</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C35" t="n">
-        <v>586.2013213109631</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D35" t="n">
-        <v>586.2013213109631</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>586.2013213109631</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>586.2013213109631</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>176.3613495969203</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1476.538681248729</v>
       </c>
       <c r="T35" t="n">
-        <v>1286.226725594945</v>
+        <v>1476.538681248729</v>
       </c>
       <c r="U35" t="n">
-        <v>1286.226725594945</v>
+        <v>1476.538681248729</v>
       </c>
       <c r="V35" t="n">
-        <v>955.1638382513748</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="W35" t="n">
-        <v>955.1638382513748</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="X35" t="n">
-        <v>955.1638382513748</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="Y35" t="n">
-        <v>955.1638382513748</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.50451430393309</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
         <v>61.20822116384403</v>
@@ -7020,19 +7022,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270848</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313477</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7047,19 +7049,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>501.9572080522025</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.7198513240011</v>
+        <v>501.9572080522025</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7135,10 +7137,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>133.2570507049327</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.2570507049327</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1164.895949784888</v>
+        <v>86.28002302839508</v>
       </c>
       <c r="C38" t="n">
-        <v>1164.895949784888</v>
+        <v>86.28002302839508</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.895949784888</v>
+        <v>86.28002302839508</v>
       </c>
       <c r="E38" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7199,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1495.958837128459</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1495.958837128459</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V38" t="n">
-        <v>1164.895949784888</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W38" t="n">
-        <v>1164.895949784888</v>
+        <v>849.8851132652867</v>
       </c>
       <c r="X38" t="n">
-        <v>1164.895949784888</v>
+        <v>476.4193550042068</v>
       </c>
       <c r="Y38" t="n">
-        <v>1164.895949784888</v>
+        <v>86.28002302839508</v>
       </c>
     </row>
     <row r="39">
@@ -7233,64 +7235,64 @@
         <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1187329501917</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>498.8504879318549</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>898.2686245361178</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1374.066492846507</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="V39" t="n">
-        <v>1138.914384614764</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W39" t="n">
-        <v>884.6770278865624</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X39" t="n">
         <v>731.8224004871524</v>
@@ -7312,25 +7314,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>1472.849648575273</v>
+        <v>1472.849648575274</v>
       </c>
       <c r="E40" t="n">
-        <v>1324.93655499288</v>
+        <v>1324.936554992881</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
         <v>1302.533129726572</v>
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7436,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X41" t="n">
-        <v>896.7318744564152</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321.5470195745884</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="C42" t="n">
-        <v>222.0882603251556</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="D42" t="n">
-        <v>222.0882603251556</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="E42" t="n">
-        <v>222.0882603251556</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="F42" t="n">
-        <v>222.0882603251556</v>
+        <v>309.0367935564187</v>
       </c>
       <c r="G42" t="n">
         <v>222.0882603251556</v>
@@ -7488,52 +7490,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525087</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W42" t="n">
-        <v>905.3741555651432</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X42" t="n">
-        <v>697.5226553596103</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y42" t="n">
-        <v>489.7623565946564</v>
+        <v>455.5713515295337</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>330.489058754481</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1475.827476974651</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1197.050067012451</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="S44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="T44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="U44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="W44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="X44" t="n">
-        <v>1587.189398988263</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="Y44" t="n">
-        <v>1197.050067012451</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>534.9536628471124</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7758,19 +7760,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1146.081406863877</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V45" t="n">
-        <v>910.9292986321343</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W45" t="n">
-        <v>910.9292986321343</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X45" t="n">
-        <v>910.9292986321343</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.1689998671804</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7840,16 +7842,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>106.5621133970632</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>106.5621133970632</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>106.5621133970632</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>106.5621133970632</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,13 +8783,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>290.4954127942447</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>281.0382923213829</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1879045256803</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,13 +9257,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611508</v>
       </c>
       <c r="P18" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954757</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544767</v>
       </c>
       <c r="N24" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275543</v>
+        <v>145.1148873712468</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344213</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>380.7598033349564</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10668,22 +10670,22 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
-        <v>157.134285587881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942447</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>228.2563757694028</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>241.3813618149015</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>8.97193213363164</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>66.52963679486089</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>103.8502950446755</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77.31676252264333</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>202.7107073159005</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.0222341697041</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23495,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>317.5248289472162</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>252.3860301008907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23586,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.814869727006965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>176.9363649428773</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>198.0222341697041</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>65.10762352190613</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>159.1079591185653</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23911,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>61.84094249820789</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23947,13 +23949,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>216.3775964124436</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>296.256191177908</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>313.8218486080597</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -24102,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>130.9841777197339</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>41.15191449738876</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>46.73791062747657</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24148,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3497577082895</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>273.0738780470262</v>
+        <v>331.5819803841964</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>159.1079591185653</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>137.643987862082</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>134.082277131945</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>296.2561911779081</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24494,7 +24496,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.3974876404047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>50.949201609471</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>204.752269007038</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,10 +24651,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>186.7332506408625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>181.0931138146082</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>163.8369997556875</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>76.66725058293243</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>71.11679827583617</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24853,13 +24855,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>56.552249438525</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967578</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>64.47709283825588</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24971,13 +24973,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>114.1144624366231</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25047,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>129.6030249771195</v>
+        <v>21.79355530712274</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.57939819579937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9773121169242</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>163.4852695088528</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>126.1337623295767</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,16 +25244,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>5.027203652028902</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25293,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>72.91723044926619</v>
       </c>
       <c r="C37" t="n">
-        <v>67.4570734028991</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>328.6478797763053</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25439,25 +25441,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>94.77910407248118</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>33.95674767626656</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>54.44690407806161</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>114.9710806029471</v>
+        <v>114.9710806029469</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25685,7 +25687,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>53.95328775113893</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>124.1091569538295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>74.24432733137733</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>50.94920160947099</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7968536786434</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.91723044926633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>26.37803586012498</v>
       </c>
       <c r="S44" t="n">
-        <v>160.1737937252935</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>199.1093844706548</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>159.1079591185655</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4702204209994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990355</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26080,10 +26082,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512704.0148629945</v>
+        <v>512704.0148629949</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629947</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512704.0148629944</v>
+        <v>512704.014862995</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>512704.0148629945</v>
+        <v>512704.0148629947</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512704.014862995</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629947</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512704.0148629945</v>
+        <v>512704.0148629947</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512704.0148629949</v>
+        <v>512704.014862995</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512704.014862995</v>
+        <v>512704.0148629949</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512704.0148629947</v>
+        <v>512704.0148629944</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26323,22 +26325,22 @@
         <v>277717.5661839886</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="I2" t="n">
         <v>277717.5661839885</v>
       </c>
-      <c r="I2" t="n">
-        <v>277717.5661839884</v>
-      </c>
       <c r="J2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="K2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
         <v>277717.5661839885</v>
@@ -26350,7 +26352,7 @@
         <v>277717.5661839885</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839886</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>43026.40002390872</v>
       </c>
       <c r="G4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="H4" t="n">
         <v>43026.40002390872</v>
       </c>
       <c r="I4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="J4" t="n">
         <v>43026.40002390872</v>
@@ -26451,10 +26453,10 @@
         <v>43026.40002390872</v>
       </c>
       <c r="N4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="O4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="P4" t="n">
         <v>43026.40002390871</v>
@@ -26482,13 +26484,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26500,10 +26502,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="N5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26522,28 +26524,28 @@
         <v>83663.49712611921</v>
       </c>
       <c r="C6" t="n">
-        <v>164432.9286576671</v>
+        <v>164432.9286576668</v>
       </c>
       <c r="D6" t="n">
         <v>164432.928657667</v>
       </c>
       <c r="E6" t="n">
-        <v>39886.64312107564</v>
+        <v>39886.64312107561</v>
       </c>
       <c r="F6" t="n">
         <v>206826.8132463223</v>
       </c>
       <c r="G6" t="n">
-        <v>206826.8132463223</v>
+        <v>206826.8132463222</v>
       </c>
       <c r="H6" t="n">
         <v>206826.8132463223</v>
       </c>
       <c r="I6" t="n">
-        <v>206826.8132463222</v>
+        <v>206826.8132463223</v>
       </c>
       <c r="J6" t="n">
-        <v>143766.8706472161</v>
+        <v>143766.870647216</v>
       </c>
       <c r="K6" t="n">
         <v>206826.8132463223</v>
@@ -26555,10 +26557,10 @@
         <v>165776.1153838743</v>
       </c>
       <c r="N6" t="n">
+        <v>206826.8132463222</v>
+      </c>
+      <c r="O6" t="n">
         <v>206826.8132463223</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206826.8132463222</v>
       </c>
       <c r="P6" t="n">
         <v>206826.8132463223</v>
@@ -26753,7 +26755,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.7532147690989</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>69.77580246843098</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.3012384358514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27625,10 +27627,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>219.8840968279493</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>5.7251205806526</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>15.06043824303563</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27831,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.6179384914298</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.6663463055326</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>136.6438852588115</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28068,10 +28070,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32722,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32782,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427703</v>
@@ -32789,22 +32791,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
         <v>40.24363958326609</v>
@@ -32813,7 +32815,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
@@ -32892,7 +32894,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>222.9093633908061</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>218.7858918080123</v>
       </c>
       <c r="N15" t="n">
-        <v>124.8420549921029</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35744,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P18" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>43.5421900459702</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36367,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>329.125045041106</v>
       </c>
       <c r="N24" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36516,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
         <v>61.94411832576036</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223148</v>
@@ -36683,16 +36685,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>331.413953801379</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.03308673054623</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
@@ -37397,13 +37399,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908061</v>
       </c>
       <c r="P36" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>141.3237492791391</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,16 +37633,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813241</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
@@ -37874,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38111,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327217.106846063</v>
+        <v>1377109.883497062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111182</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>205.5810588664028</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>153.1835637471324</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>103.1930239874509</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18.29749587628863</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>36.21593518981622</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.216928617608728</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>97.35820752796802</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>114.9581870864144</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>111.451523210019</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>236.634544917884</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>405.7415719969023</v>
@@ -1420,16 +1420,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17.03417795674579</v>
+        <v>285.2121983846091</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.61098209685969</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>84.65566922272912</v>
       </c>
       <c r="X14" t="n">
-        <v>341.6446527171154</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>136.5642473547105</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -1706,7 +1706,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>49.16575865590852</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>12.35168551462424</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>121.1521287468505</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>405.7415719969023</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>109.9367233488662</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>127.4444754600358</v>
       </c>
       <c r="F18" t="n">
-        <v>108.7662110425723</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>73.36175976093786</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>17.95817021688007</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>380.3849069482931</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.020049474288962</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.19875901775777</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>98.68313739545458</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.9740171447237</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>30.96091120189161</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,22 +2402,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>28.03728256313287</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>114.1942888468236</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>179.372059866102</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>104.1189927826352</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>35.24873668490598</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>114.1942888468236</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="U28" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>234.1536680083896</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>38.92321710192613</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33.64439241526546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>18.12022702288987</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>81.21596998689216</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>312.8698354652412</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.6221850809706</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.97640474817485</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.41912010935305</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>26.50533691882888</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>140.514979870707</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>12.35168551462418</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>73.36175976093786</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G38" t="n">
-        <v>17.95817021688012</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>20.05209876101974</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>173.5284489611768</v>
+        <v>125.3696417364704</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>158.252581986138</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.05930342856819</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>376.8808099557201</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>89.98174747814551</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>42.42384530003613</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>158.2660916423463</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>12.35168551462426</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>180.0783550618347</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>399.8885402891419</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>322.5108037959411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>73.04243117081693</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>19.18822243440151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>18.12022702288992</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.4532163200711</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C3" t="n">
-        <v>414.0001870389441</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0657773776928</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
         <v>110.334904905842</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4445,16 +4445,16 @@
         <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>588.4532163200711</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>588.4532163200711</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="X3" t="n">
-        <v>588.4532163200711</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y3" t="n">
-        <v>588.4532163200711</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>83.39019569563071</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>67.93288507428217</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>67.93288507428217</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.5702840197694</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>865.715531745012</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>637.4919134814011</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X6" t="n">
-        <v>310.5702840197694</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y6" t="n">
-        <v>310.5702840197694</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>348.0024326625565</v>
+        <v>341.056931913353</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4837,19 +4837,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>421.0696464340549</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M9" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N9" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D11" t="n">
-        <v>1237.927521786082</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E11" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F11" t="n">
         <v>442.2992974737949</v>
@@ -5068,25 +5068,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1255.133762146431</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="W11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="X11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y11" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.7946829649775</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C12" t="n">
-        <v>676.7946829649775</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D12" t="n">
-        <v>527.8602733037262</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E12" t="n">
-        <v>368.6228182982707</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
@@ -5129,16 +5129,16 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.763620525087</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>1159.611512293345</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W12" t="n">
-        <v>905.3741555651432</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X12" t="n">
-        <v>905.3741555651432</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.6138568001893</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="13">
@@ -5223,22 +5223,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
         <v>32.45932575975218</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>727.5334240793518</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C14" t="n">
-        <v>727.5334240793518</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D14" t="n">
-        <v>369.2677254726013</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E14" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F14" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1425.397688154633</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1425.397688154633</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V14" t="n">
-        <v>1425.397688154633</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W14" t="n">
-        <v>1072.629032884519</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="X14" t="n">
-        <v>727.5334240793518</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="Y14" t="n">
-        <v>727.5334240793518</v>
+        <v>418.2475783579964</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>694.1911178525678</v>
+        <v>742.4963801321742</v>
       </c>
       <c r="C15" t="n">
-        <v>519.7380885714408</v>
+        <v>568.0433508510472</v>
       </c>
       <c r="D15" t="n">
-        <v>519.7380885714408</v>
+        <v>419.1089411897959</v>
       </c>
       <c r="E15" t="n">
-        <v>360.5006335659854</v>
+        <v>419.1089411897959</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M15" t="n">
-        <v>636.3836421851988</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
@@ -5387,22 +5387,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1324.404110365791</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1324.404110365791</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>1324.404110365791</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W15" t="n">
-        <v>1070.16675363759</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="X15" t="n">
-        <v>1070.16675363759</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.4064548726358</v>
+        <v>910.7117171522423</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5463,25 +5463,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1291.903400644038</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C17" t="n">
-        <v>922.9408837036267</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D17" t="n">
-        <v>564.6751850968762</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E17" t="n">
-        <v>564.6751850968762</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F17" t="n">
         <v>442.2992974737949</v>
@@ -5515,10 +5515,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528324</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1511.919092685724</v>
       </c>
       <c r="V17" t="n">
-        <v>1291.903400644038</v>
+        <v>1180.856205342153</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.903400644038</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X17" t="n">
-        <v>1291.903400644038</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y17" t="n">
-        <v>1291.903400644038</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>476.0146696852966</v>
+        <v>622.9909313369358</v>
       </c>
       <c r="C18" t="n">
-        <v>301.5616404041696</v>
+        <v>448.5379020558088</v>
       </c>
       <c r="D18" t="n">
-        <v>301.5616404041696</v>
+        <v>299.6034923945575</v>
       </c>
       <c r="E18" t="n">
-        <v>142.3241853987141</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G18" t="n">
         <v>32.45932575975218</v>
@@ -5594,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K18" t="n">
         <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>636.3836421851986</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.067798462132</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O18" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1603.325054840697</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1145.863825383985</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>1145.863825383985</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W18" t="n">
-        <v>891.6264686557834</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X18" t="n">
-        <v>683.7749684502505</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="Y18" t="n">
-        <v>476.0146696852966</v>
+        <v>791.2062683570039</v>
       </c>
     </row>
     <row r="19">
@@ -5682,40 +5682,40 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2519049032823</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V19" t="n">
-        <v>253.2519049032823</v>
+        <v>106.5621133970631</v>
       </c>
       <c r="W19" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
         <v>32.45932575975218</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E20" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="F20" t="n">
         <v>442.2992974737949</v>
-      </c>
-      <c r="F20" t="n">
-        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
         <v>32.45932575975218</v>
@@ -5758,10 +5758,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5794,10 +5794,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>1604.826722111973</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1214.687390136161</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>515.0842197075859</v>
+        <v>461.699144329083</v>
       </c>
       <c r="C21" t="n">
-        <v>340.6311904264589</v>
+        <v>287.246115047956</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>287.246115047956</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>287.246115047956</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975218</v>
@@ -5843,10 +5843,10 @@
         <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P21" t="n">
         <v>1513.730526286846</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1581.351379888864</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1581.351379888864</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1581.351379888864</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U21" t="n">
-        <v>1353.148712426342</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V21" t="n">
-        <v>1353.148712426342</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W21" t="n">
-        <v>1098.911355698141</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="X21" t="n">
-        <v>891.0598554926078</v>
+        <v>669.4594430940369</v>
       </c>
       <c r="Y21" t="n">
-        <v>683.2995567276539</v>
+        <v>461.699144329083</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
         <v>32.45932575975218</v>
@@ -5919,43 +5919,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N22" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="X22" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1555.315765619201</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.35324867879</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="D23" t="n">
-        <v>828.0875500720392</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="E23" t="n">
-        <v>442.2992974737949</v>
+        <v>473.5729451524733</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>63.73297343843058</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -5989,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6031,10 +6031,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>1622.966287987609</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y23" t="n">
-        <v>1622.966287987609</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>322.2601215528222</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="C24" t="n">
-        <v>147.8070922716952</v>
+        <v>535.3556789766084</v>
       </c>
       <c r="D24" t="n">
-        <v>147.8070922716952</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E24" t="n">
-        <v>147.8070922716952</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>147.8070922716952</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1227.261385483253</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V24" t="n">
-        <v>992.1092772515105</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W24" t="n">
-        <v>737.871920523309</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X24" t="n">
-        <v>530.0204203177761</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="Y24" t="n">
-        <v>322.2601215528222</v>
+        <v>709.8087082577354</v>
       </c>
     </row>
     <row r="25">
@@ -6150,7 +6150,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191283</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6159,7 +6159,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285708</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
         <v>332.2934283710736</v>
@@ -6177,22 +6177,22 @@
         <v>361.24660160295</v>
       </c>
       <c r="T25" t="n">
-        <v>214.1077905899919</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>214.1077905899919</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V25" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W25" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5925424806035</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="C26" t="n">
-        <v>137.6300255401918</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="D26" t="n">
-        <v>137.6300255401918</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="E26" t="n">
-        <v>137.6300255401918</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="F26" t="n">
-        <v>137.6300255401918</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
-        <v>137.6300255401918</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X26" t="n">
-        <v>896.7318744564152</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.5925424806035</v>
+        <v>1010.083036392565</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206.9123550408792</v>
+        <v>419.9665669993257</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975218</v>
+        <v>419.9665669993257</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975218</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1340.116286433832</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1111.91361897131</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>876.7615107395675</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>622.5241540113659</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>414.6726538058331</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y27" t="n">
-        <v>206.9123550408792</v>
+        <v>455.5713515295337</v>
       </c>
     </row>
     <row r="28">
@@ -6414,7 +6414,7 @@
         <v>361.24660160295</v>
       </c>
       <c r="T28" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U28" t="n">
         <v>321.8764957967128</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1197.050067012451</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0875500720392</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>678.8181540479259</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>268.9781823338831</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1583.649907076573</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V29" t="n">
-        <v>1583.649907076573</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.649907076573</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X29" t="n">
-        <v>1583.649907076573</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y29" t="n">
-        <v>1583.649907076573</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6569,10 +6569,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
         <v>1111.91361897131</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.24660160295</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="C31" t="n">
-        <v>361.24660160295</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="D31" t="n">
-        <v>327.2623668400556</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="E31" t="n">
-        <v>179.3492732576625</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I31" t="n">
         <v>32.45932575975218</v>
@@ -6663,10 +6663,10 @@
         <v>361.24660160295</v>
       </c>
       <c r="X31" t="n">
-        <v>361.24660160295</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.24660160295</v>
+        <v>342.9433419838693</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>472.7613576865958</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C32" t="n">
-        <v>472.7613576865958</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D32" t="n">
-        <v>114.4956590798453</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6733,19 +6733,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X32" t="n">
-        <v>1249.500529726529</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y32" t="n">
-        <v>859.3611977507176</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6806,10 +6806,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
         <v>1111.91361897131</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
         <v>32.45932575975218</v>
@@ -6888,22 +6888,22 @@
         <v>361.24660160295</v>
       </c>
       <c r="T34" t="n">
-        <v>193.9514651575251</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U34" t="n">
-        <v>193.9514651575251</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V34" t="n">
-        <v>193.9514651575251</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W34" t="n">
-        <v>193.9514651575251</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="X34" t="n">
-        <v>193.9514651575251</v>
+        <v>71.82943156598941</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1197.050067012451</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="C35" t="n">
-        <v>828.0875500720392</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="D35" t="n">
-        <v>828.0875500720392</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E35" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="F35" t="n">
         <v>442.2992974737949</v>
-      </c>
-      <c r="F35" t="n">
-        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6976,13 +6976,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011797</v>
+        <v>1596.193220392832</v>
       </c>
     </row>
     <row r="36">
@@ -7028,10 +7028,10 @@
         <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1481.031964885885</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1280.128955991378</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1280.128955991378</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1044.976847759636</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>790.739491031434</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>582.8879908259012</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.1276920609472</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975218</v>
@@ -7131,16 +7131,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="V37" t="n">
-        <v>361.24660160295</v>
+        <v>106.5621133970631</v>
       </c>
       <c r="W37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>846.2271159476757</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="C38" t="n">
-        <v>846.2271159476757</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="D38" t="n">
-        <v>846.2271159476757</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="E38" t="n">
-        <v>460.4388633494314</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="F38" t="n">
-        <v>50.59889163538867</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>52.71397097290344</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7177,13 +7177,13 @@
         <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7204,22 +7204,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.826956011797</v>
+        <v>462.5539426869462</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>381.3257153306112</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="C39" t="n">
-        <v>381.3257153306112</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D39" t="n">
-        <v>381.3257153306112</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E39" t="n">
-        <v>222.0882603251556</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F39" t="n">
-        <v>222.0882603251556</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
@@ -7262,16 +7262,16 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7286,19 +7286,19 @@
         <v>1422.063279093102</v>
       </c>
       <c r="U39" t="n">
-        <v>1246.782017516156</v>
+        <v>1295.427277339092</v>
       </c>
       <c r="V39" t="n">
-        <v>1011.629909284414</v>
+        <v>1295.427277339092</v>
       </c>
       <c r="W39" t="n">
-        <v>757.392552556212</v>
+        <v>1041.18992061089</v>
       </c>
       <c r="X39" t="n">
-        <v>549.5410523506791</v>
+        <v>833.3384204053575</v>
       </c>
       <c r="Y39" t="n">
-        <v>549.5410523506791</v>
+        <v>625.5781216404037</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C40" t="n">
         <v>32.45932575975218</v>
@@ -7353,31 +7353,31 @@
         <v>361.24660160295</v>
       </c>
       <c r="Q40" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R40" t="n">
-        <v>254.0859912868768</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1236.366447923487</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C41" t="n">
-        <v>867.4039309830757</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D41" t="n">
-        <v>509.1382323763252</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E41" t="n">
-        <v>123.349979778081</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>123.349979778081</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7456,7 +7456,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>1622.966287987609</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>661.618777680701</v>
+        <v>583.8975598600312</v>
       </c>
       <c r="C42" t="n">
-        <v>487.165748399574</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="D42" t="n">
-        <v>338.2313387383227</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7502,10 +7502,10 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1580.113918997674</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1379.210910103167</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1151.008242640645</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V42" t="n">
-        <v>915.8561344089026</v>
+        <v>1214.201753813834</v>
       </c>
       <c r="W42" t="n">
-        <v>661.618777680701</v>
+        <v>959.9643970856321</v>
       </c>
       <c r="X42" t="n">
-        <v>661.618777680701</v>
+        <v>752.1128968800992</v>
       </c>
       <c r="Y42" t="n">
-        <v>661.618777680701</v>
+        <v>752.1128968800992</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F43" t="n">
-        <v>214.3566541050397</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>44.93577577452416</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>44.93577577452416</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975218</v>
@@ -7608,13 +7608,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.3492732576625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C44" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D44" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F44" t="n">
-        <v>442.2992974737949</v>
+        <v>436.3871442336329</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1177.907757870606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>852.1392691878377</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>455.6182862742456</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7727,25 +7727,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1549.186054481733</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1549.186054481733</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>1320.983387019212</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>1085.831278787469</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>831.5939220592675</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>831.5939220592675</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>623.8336232943136</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E46" t="n">
-        <v>342.9433419838693</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F46" t="n">
-        <v>342.9433419838693</v>
+        <v>213.333508020557</v>
       </c>
       <c r="G46" t="n">
-        <v>342.9433419838693</v>
+        <v>213.333508020557</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4512025860964</v>
+        <v>51.84136862278402</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210651</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>70.10119885733472</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>404.2448282451924</v>
       </c>
       <c r="N15" t="n">
-        <v>364.5878977387108</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>400.7426633853975</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343857</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5777639440803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>92.88803957954771</v>
+        <v>337.5786953411716</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>63.84875129258629</v>
+        <v>63.84875129258627</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1250211658772</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58604940343857</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,13 +10676,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275543</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>247.31430480046</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>8.97193213363164</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>310.7180805133891</v>
+        <v>42.54006008552585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.9222015530077</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21.18181338303363</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23472,7 +23472,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>186.5148647619667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>264.5852994946839</v>
       </c>
       <c r="X14" t="n">
-        <v>28.0864479613536</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>8.50496503867339</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>149.7282201496531</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
@@ -23703,13 +23703,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>180.2156082447829</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>285.7239169948609</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>8.97193213363164</v>
@@ -23788,13 +23788,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>141.3617908882022</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30.20060499536513</v>
       </c>
       <c r="F18" t="n">
-        <v>36.30300135081161</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23946,19 +23946,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>179.3898627250244</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>351.7729304615889</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>5.853031707760465</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>139.0491629190949</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.38482548051775</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>107.2391720194988</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,10 +24180,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>119.9015159566402</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.7598245187569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>383.7525929286423</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456975</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>119.4077830015059</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>22.83396066159786</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,13 +24417,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>81.14884278648279</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967577</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>227.5039858756094</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>229.3213229330854</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24496,7 +24496,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>131.2844469649614</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,7 +24542,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>84.69968995873803</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,10 +24654,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411364</v>
       </c>
       <c r="U28" t="n">
-        <v>247.3282077095207</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>99.28664770733099</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.3752971351423</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24809,13 +24809,13 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9710806029469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>74.67247646141476</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>207.5894283661473</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>300.7144000853696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24973,19 +24973,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>56.8612652132278</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25046,13 +25046,13 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
         <v>147.5019580580808</v>
@@ -25128,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>61.19408060834064</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039199</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.3147215541275</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>322.7356317985841</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
-        <v>25.3122328207088</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>136.2637875035882</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25371,10 +25371,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>396.7553339136538</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>313.3882169547009</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25444,22 +25444,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>52.39219182671982</v>
+        <v>100.5509990514262</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>21.57939819579929</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>123.3497577082893</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5.853031707760522</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>324.7317566523884</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>123.4033673913796</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>74.53449550707899</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>135.1502725434565</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141476</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,7 +25879,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>14.82496384139199</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25924,7 +25924,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.72713486011253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25994,13 +25994,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>92.78478152059883</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>128.3137356236792</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26076,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>208.6960386664213</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629949</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512704.0148629947</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512704.0148629947</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512704.0148629949</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>512704.0148629945</v>
+        <v>512704.0148629944</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629949</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629949</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512704.0148629948</v>
+        <v>512704.0148629945</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
       <c r="I2" t="n">
-        <v>277717.5661839883</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="K2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="L2" t="n">
         <v>277717.5661839884</v>
-      </c>
-      <c r="L2" t="n">
-        <v>277717.5661839882</v>
       </c>
       <c r="M2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="N2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839882</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="P2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839886</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>43026.40002390872</v>
       </c>
       <c r="J4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="K4" t="n">
         <v>43026.40002390872</v>
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83663.49712611909</v>
+        <v>83663.49712611921</v>
       </c>
       <c r="C6" t="n">
+        <v>164432.928657667</v>
+      </c>
+      <c r="D6" t="n">
         <v>164432.9286576668</v>
       </c>
-      <c r="D6" t="n">
-        <v>164432.928657667</v>
-      </c>
       <c r="E6" t="n">
-        <v>30042.04372769865</v>
+        <v>38902.18318173779</v>
       </c>
       <c r="F6" t="n">
-        <v>196982.2138529456</v>
+        <v>205842.3533069846</v>
       </c>
       <c r="G6" t="n">
-        <v>196982.2138529455</v>
+        <v>205842.3533069846</v>
       </c>
       <c r="H6" t="n">
-        <v>196982.2138529455</v>
+        <v>205842.3533069847</v>
       </c>
       <c r="I6" t="n">
-        <v>196982.2138529453</v>
+        <v>205842.3533069845</v>
       </c>
       <c r="J6" t="n">
-        <v>133922.2712538391</v>
+        <v>142782.4107078782</v>
       </c>
       <c r="K6" t="n">
-        <v>196982.2138529454</v>
+        <v>205842.3533069845</v>
       </c>
       <c r="L6" t="n">
-        <v>196982.2138529452</v>
+        <v>205842.3533069845</v>
       </c>
       <c r="M6" t="n">
-        <v>155931.5159904975</v>
+        <v>164791.6554445366</v>
       </c>
       <c r="N6" t="n">
-        <v>196982.2138529453</v>
+        <v>205842.3533069845</v>
       </c>
       <c r="O6" t="n">
-        <v>196982.2138529452</v>
+        <v>205842.3533069845</v>
       </c>
       <c r="P6" t="n">
-        <v>196982.2138529455</v>
+        <v>205842.3533069846</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.2949868753087</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>4.461516708268562</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27517,10 +27517,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>148.5019591734687</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>336.3855457443943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>174.2599543805897</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>152.4281518377922</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27748,16 +27748,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>102.8065211668536</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,13 +27824,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>300.3445504287207</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>61.25697577829671</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>15.06043824303563</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438473</v>
@@ -32250,25 +32250,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R17" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T17" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427703</v>
@@ -32317,22 +32317,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32341,7 +32341,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
@@ -32420,7 +32420,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32487,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R20" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T20" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
@@ -32554,22 +32554,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q21" t="n">
         <v>40.24363958326609</v>
@@ -32578,7 +32578,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
@@ -32657,7 +32657,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011532</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046561</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629217</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645899</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044656</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32724,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971763</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737664</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134782</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545222</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.579369141091549</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809224</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891927</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32788,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.7858796132193</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409521</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253942</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864763</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975587</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100586</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601699</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326608</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422063</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259947</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823637</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412593</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323127</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141107</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039454</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32888,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735008</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118888</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970202</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35497,7 +35497,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35509,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>341.9924277318217</v>
       </c>
       <c r="N15" t="n">
-        <v>315.2420482051334</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726432</v>
@@ -35895,7 +35895,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K18" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>338.4902628720268</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.8396294413249</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O19" t="n">
         <v>61.94411832576036</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36132,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>43.54219004597032</v>
+        <v>288.2328458075942</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>110.3391532330937</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O22" t="n">
         <v>61.94411832576036</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167965</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36375,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680302</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243077</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325165</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576035</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714789</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7791716322998</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>177.5326105223148</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P33" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>179.7282553970214</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38031,7 +38031,7 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,16 +38107,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
